--- a/biology/Médecine/1352_en_santé_et_médecine/1352_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1352_en_santé_et_médecine/1352_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1352_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1352_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1352 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1352_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1352_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Avril : ordonnance du roi Jean II le Bon « portant défense à toutes personnes d'exercer à Paris l'art de la chirurgie sans avoir été examinées[1] ».
-Décembre : ordonnance de Jean le Bon qui : « à la requête du doyen de la faculté de médecine de Paris, […] défend à toutes personnes d'exercer la médecine à Paris, à moins qu'elles ne soient docteurs ou licenciés[1] ».
-Fondation par Eudeline, veuve de Jean Boucher, d'un « hôpital pour les pauvres mendiants passant dans la ville de Saint-Denis[2] » au pays de France.
-Eleanor de Breos fonde à Swansea, dans le comté de Glamorgan au pays de Galles, un hôpital Saint-David qu'elle destine à l'entretien de douze pauvres[3].
-Une maladrerie est mentionnée à Champeaux, en Brie, établissement qui continue peut-être la léproserie attestée dans ce bourg entre 1201 et 1224, et qui sera réuni à l'hôtel-Dieu en 1695[4],[5].
-1352-1353 : fondation par Sofia de Arcangelis au mont Sion de Jérusalem, en Palestine, d'un « hospice pour femmes d'une capacité de cent lits[6],[7] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Avril : ordonnance du roi Jean II le Bon « portant défense à toutes personnes d'exercer à Paris l'art de la chirurgie sans avoir été examinées ».
+Décembre : ordonnance de Jean le Bon qui : « à la requête du doyen de la faculté de médecine de Paris, […] défend à toutes personnes d'exercer la médecine à Paris, à moins qu'elles ne soient docteurs ou licenciés ».
+Fondation par Eudeline, veuve de Jean Boucher, d'un « hôpital pour les pauvres mendiants passant dans la ville de Saint-Denis » au pays de France.
+Eleanor de Breos fonde à Swansea, dans le comté de Glamorgan au pays de Galles, un hôpital Saint-David qu'elle destine à l'entretien de douze pauvres.
+Une maladrerie est mentionnée à Champeaux, en Brie, établissement qui continue peut-être la léproserie attestée dans ce bourg entre 1201 et 1224, et qui sera réuni à l'hôtel-Dieu en 1695,.
+1352-1353 : fondation par Sofia de Arcangelis au mont Sion de Jérusalem, en Palestine, d'un « hospice pour femmes d'une capacité de cent lits, ».</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1352_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1352_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Alphonse Dionysii (date de naissance inconnue), médecin portugais au service des rois Alphonse XI de Castille et Alphonse IV de Portugal[8].
-Entre 1350 et 1352 : Opicinus de Canistris (né en 1296), prêtre, écrivain et illustrateur italien dont l’œuvre autobiographique présente un caractère psychotique[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alphonse Dionysii (date de naissance inconnue), médecin portugais au service des rois Alphonse XI de Castille et Alphonse IV de Portugal.
+Entre 1350 et 1352 : Opicinus de Canistris (né en 1296), prêtre, écrivain et illustrateur italien dont l’œuvre autobiographique présente un caractère psychotique.</t>
         </is>
       </c>
     </row>
